--- a/VisionModel/output/predicted_trajectoriesZ.xlsx
+++ b/VisionModel/output/predicted_trajectoriesZ.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2910.783199348732</v>
+        <v>2828.908060756878</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>3345.40038842166</v>
+        <v>3298.454299391392</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>3876.161353762495</v>
+        <v>3794.26526039282</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>4180.498167742281</v>
+        <v>4178.222534466338</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>4492.407853860282</v>
+        <v>4556.861937870579</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>4717.67225757418</v>
+        <v>4834.275747754319</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>4975.706339698693</v>
+        <v>5062.77171820571</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>5136.91695128887</v>
+        <v>5296.209976576868</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>5365.756639737535</v>
+        <v>5504.106933312641</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>5487.558476646536</v>
+        <v>5699.529698776136</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>5656.519095842717</v>
+        <v>5839.755078910467</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>5730.759928717463</v>
+        <v>5974.187475317275</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>5853.374947924697</v>
+        <v>6110.697099808131</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>5943.756020420013</v>
+        <v>6224.774356328168</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>6063.76149701445</v>
+        <v>6320.590116923513</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>6132.314351048723</v>
+        <v>6399.570870684403</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>6145.730831683091</v>
+        <v>6442.069906481417</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>6154.561600341954</v>
+        <v>6492.437406627102</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>6233.923318346851</v>
+        <v>6569.738737587023</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>6244.529639887774</v>
+        <v>6590.404731793462</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>6268.082104059808</v>
+        <v>6603.879880877508</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>6237.807710738081</v>
+        <v>6574.362538734874</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>6250.465495283299</v>
+        <v>6607.942174405302</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>6246.634749654287</v>
+        <v>6623.357449945452</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>6215.811401289193</v>
+        <v>6594.023439976461</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>6158.656188266918</v>
+        <v>6557.416175048669</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>6104.277896431347</v>
+        <v>6507.966590108575</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>6047.460147572908</v>
+        <v>6468.915959886022</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>5971.801914228782</v>
+        <v>6415.8911579546</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>5882.511229636774</v>
+        <v>6321.841052719808</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>5847.012818758001</v>
+        <v>6266.388627505204</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>5828.806431720422</v>
+        <v>6204.457545401357</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>5684.467860003131</v>
+        <v>6116.918128245487</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>5610.734213279703</v>
+        <v>6037.161476941037</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>5578.814866867859</v>
+        <v>5955.898905059021</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>5421.523569498488</v>
+        <v>5834.778381063357</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>5316.408020066964</v>
+        <v>5682.884196220623</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>5214.877611853051</v>
+        <v>5579.551722986069</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>5094.3327597149</v>
+        <v>5485.529696197539</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>4914.042556391253</v>
+        <v>5340.640581307429</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>4806.518160879913</v>
+        <v>5191.348744969853</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>4734.352988338635</v>
+        <v>5058.084930782884</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>4570.58114134945</v>
+        <v>4904.304812994588</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>4442.362156569375</v>
+        <v>4740.956663982107</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>4399.506782106349</v>
+        <v>4773.314812996503</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>4293.286832916067</v>
+        <v>4632.038358301177</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>4078.407976629168</v>
+        <v>4475.943185769258</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>3853.640939016072</v>
+        <v>4280.400292942837</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>3713.9475257931</v>
+        <v>4105.843735977068</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>3591.889148345424</v>
+        <v>3943.935646456168</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>3363.39654316477</v>
+        <v>3736.256662719521</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>3251.377991546829</v>
+        <v>3506.894490183995</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>3123.530875058373</v>
+        <v>3367.62597328793</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>2993.617875877496</v>
+        <v>3207.442870521121</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>2756.889356616159</v>
+        <v>3027.720915403213</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>2596.276579841996</v>
+        <v>2825.968194738774</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>2535.22633073608</v>
+        <v>2701.098773225646</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>2436.41025767174</v>
+        <v>2523.992323436909</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>2338.72427420475</v>
+        <v>2418.065447732264</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>2278.506688116923</v>
+        <v>2341.484670373488</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>2199.406554578001</v>
+        <v>2273.717867178393</v>
       </c>
     </row>
   </sheetData>

--- a/VisionModel/output/predicted_trajectoriesZ.xlsx
+++ b/VisionModel/output/predicted_trajectoriesZ.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2828.908060756878</v>
+        <v>3048.95356696664</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>3298.454299391392</v>
+        <v>3459.023402380415</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>3794.26526039282</v>
+        <v>3881.448748798804</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>4178.222534466338</v>
+        <v>4275.14330117802</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>4556.861937870579</v>
+        <v>4650.055980486404</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>4834.275747754319</v>
+        <v>4959.474869565301</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>5062.77171820571</v>
+        <v>5159.044660738143</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>5296.209976576868</v>
+        <v>5363.856978267961</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>5504.106933312641</v>
+        <v>5545.621323604955</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>5699.529698776136</v>
+        <v>5782.438858581801</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>5839.755078910467</v>
+        <v>5923.870091948377</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>5974.187475317275</v>
+        <v>6078.984671521705</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>6110.697099808131</v>
+        <v>6228.854537360922</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>6224.774356328168</v>
+        <v>6307.552041496362</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>6320.590116923513</v>
+        <v>6419.356968038338</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>6399.570870684403</v>
+        <v>6474.162623145135</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>6442.069906481417</v>
+        <v>6538.885201070315</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>6492.437406627102</v>
+        <v>6593.583980460076</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>6569.738737587023</v>
+        <v>6667.769515278936</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>6590.404731793462</v>
+        <v>6687.036915397022</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>6603.879880877508</v>
+        <v>6691.312506576869</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>6574.362538734874</v>
+        <v>6681.122391742525</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>6607.942174405302</v>
+        <v>6708.808511259751</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>6623.357449945452</v>
+        <v>6718.889982721571</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>6594.023439976461</v>
+        <v>6699.034090905601</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>6557.416175048669</v>
+        <v>6677.306450025442</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>6507.966590108575</v>
+        <v>6617.939411197557</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>6468.915959886022</v>
+        <v>6585.707603292922</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>6415.8911579546</v>
+        <v>6528.805143771848</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>6321.841052719808</v>
+        <v>6451.777864404964</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>6266.388627505204</v>
+        <v>6399.845128615047</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>6204.457545401357</v>
+        <v>6314.068930280756</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>6116.918128245487</v>
+        <v>6224.52253802735</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>6037.161476941037</v>
+        <v>6164.376395896112</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>5955.898905059021</v>
+        <v>6071.35755909473</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>5834.778381063357</v>
+        <v>5972.152035721722</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>5682.884196220623</v>
+        <v>5854.437045345408</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>5579.551722986069</v>
+        <v>5786.930234212736</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>5485.529696197539</v>
+        <v>5689.185453931108</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>5340.640581307429</v>
+        <v>5587.772366833796</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>5191.348744969853</v>
+        <v>5383.058315388869</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>5058.084930782884</v>
+        <v>5246.55293287376</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>4904.304812994588</v>
+        <v>5105.295375634791</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>4740.956663982107</v>
+        <v>4945.479565466244</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>4773.314812996503</v>
+        <v>4711.058470048256</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>4632.038358301177</v>
+        <v>4586.071295206078</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>4475.943185769258</v>
+        <v>4415.339258939557</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>4280.400292942837</v>
+        <v>4252.487202767622</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>4105.843735977068</v>
+        <v>4117.527047336341</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>3943.935646456168</v>
+        <v>3945.424246354755</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>3736.256662719521</v>
+        <v>3732.630817160296</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>3506.894490183995</v>
+        <v>3375.23342096731</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>3367.62597328793</v>
+        <v>3222.101485495768</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>3207.442870521121</v>
+        <v>3071.459351097113</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>3027.720915403213</v>
+        <v>2911.190209380306</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>2825.968194738774</v>
+        <v>2759.19461797026</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>2701.098773225646</v>
+        <v>2625.81891973139</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>2523.992323436909</v>
+        <v>2499.165860648438</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>2418.065447732264</v>
+        <v>2410.19285203388</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>2341.484670373488</v>
+        <v>2351.81319662543</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>2273.717867178393</v>
+        <v>2297.629950698137</v>
       </c>
     </row>
   </sheetData>

--- a/VisionModel/output/predicted_trajectoriesZ.xlsx
+++ b/VisionModel/output/predicted_trajectoriesZ.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3048.95356696664</v>
+        <v>2852.45616702906</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>3459.023402380415</v>
+        <v>3222.810395715689</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>3881.448748798804</v>
+        <v>3760.41217101072</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>4275.14330117802</v>
+        <v>4215.576617825329</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>4650.055980486404</v>
+        <v>4552.606182681607</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>4959.474869565301</v>
+        <v>4837.553047886875</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>5159.044660738143</v>
+        <v>5105.324759595394</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>5363.856978267961</v>
+        <v>5327.087680414962</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>5545.621323604955</v>
+        <v>5543.973262663902</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>5782.438858581801</v>
+        <v>5722.967529782031</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>5923.870091948377</v>
+        <v>5791.712971149964</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>6078.984671521705</v>
+        <v>6009.995218597167</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>6228.854537360922</v>
+        <v>6138.979774853446</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>6307.552041496362</v>
+        <v>6221.394152096422</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>6419.356968038338</v>
+        <v>6351.835669819631</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>6474.162623145135</v>
+        <v>6389.913579031808</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>6538.885201070315</v>
+        <v>6457.899256995265</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>6593.583980460076</v>
+        <v>6493.189068226568</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>6667.769515278936</v>
+        <v>6573.623914589975</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>6687.036915397022</v>
+        <v>6595.358086449128</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>6691.312506576869</v>
+        <v>6622.658099770334</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>6681.122391742525</v>
+        <v>6616.094729561163</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>6708.808511259751</v>
+        <v>6631.073662321366</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>6718.889982721571</v>
+        <v>6631.255821965488</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>6699.034090905601</v>
+        <v>6594.344551836674</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>6677.306450025442</v>
+        <v>6571.935987152133</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>6617.939411197557</v>
+        <v>6513.163518606098</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>6585.707603292922</v>
+        <v>6489.297511363043</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>6528.805143771848</v>
+        <v>6405.067096257225</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>6451.777864404964</v>
+        <v>6360.456442666165</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>6399.845128615047</v>
+        <v>6340.285597746446</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>6314.068930280756</v>
+        <v>6230.041707158317</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>6224.52253802735</v>
+        <v>6111.311892980305</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>6164.376395896112</v>
+        <v>6046.065743282183</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>6071.35755909473</v>
+        <v>5939.768889263428</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>5972.152035721722</v>
+        <v>5874.682892777044</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>5854.437045345408</v>
+        <v>5706.213541061077</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>5786.930234212736</v>
+        <v>5572.991581891588</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>5689.185453931108</v>
+        <v>5427.926963202865</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>5587.772366833796</v>
+        <v>5275.17731616132</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>5383.058315388869</v>
+        <v>5159.035857758249</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>5246.55293287376</v>
+        <v>5031.489641223315</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>5105.295375634791</v>
+        <v>4891.717422088948</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>4945.479565466244</v>
+        <v>4756.95698502396</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>4711.058470048256</v>
+        <v>4684.089424761425</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>4586.071295206078</v>
+        <v>4534.829679974262</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>4415.339258939557</v>
+        <v>4359.579989905586</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>4252.487202767622</v>
+        <v>4192.955161297428</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>4117.527047336341</v>
+        <v>4044.558644583612</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>3945.424246354755</v>
+        <v>3864.944845544914</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>3732.630817160296</v>
+        <v>3668.648383986862</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>3375.23342096731</v>
+        <v>3500.895877670191</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>3222.101485495768</v>
+        <v>3355.983223828149</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>3071.459351097113</v>
+        <v>3145.085644519123</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>2911.190209380306</v>
+        <v>2890.445413936145</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>2759.19461797026</v>
+        <v>2741.557846218197</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>2625.81891973139</v>
+        <v>2603.40694896459</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>2499.165860648438</v>
+        <v>2470.387404265228</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>2410.19285203388</v>
+        <v>2402.454256589491</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>2351.81319662543</v>
+        <v>2351.931898994147</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>2297.629950698137</v>
+        <v>2320.473191916665</v>
       </c>
     </row>
   </sheetData>

--- a/VisionModel/output/predicted_trajectoriesZ.xlsx
+++ b/VisionModel/output/predicted_trajectoriesZ.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2852.45616702906</v>
+        <v>2923.576028960172</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>3222.810395715689</v>
+        <v>3321.038713266705</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>3760.41217101072</v>
+        <v>3886.777020343889</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>4215.576617825329</v>
+        <v>4314.744431086633</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>4552.606182681607</v>
+        <v>4642.171555175671</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>4837.553047886875</v>
+        <v>4868.624648148253</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>5105.324759595394</v>
+        <v>5125.944010635396</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>5327.087680414962</v>
+        <v>5342.756567636689</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>5543.973262663902</v>
+        <v>5626.781153722075</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>5722.967529782031</v>
+        <v>5727.118723810588</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>5791.712971149964</v>
+        <v>5791.369956989529</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>6009.995218597167</v>
+        <v>6019.269040680137</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>6138.979774853446</v>
+        <v>6162.996299292629</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>6221.394152096422</v>
+        <v>6220.965503800751</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>6351.835669819631</v>
+        <v>6381.109695094492</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>6389.913579031808</v>
+        <v>6441.654000796171</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>6457.899256995265</v>
+        <v>6468.345827178451</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>6493.189068226568</v>
+        <v>6498.077576104009</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>6573.623914589975</v>
+        <v>6597.705056959815</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>6595.358086449128</v>
+        <v>6615.022245438043</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>6622.658099770334</v>
+        <v>6627.878116110614</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>6616.094729561163</v>
+        <v>6602.238769319099</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>6631.073662321366</v>
+        <v>6628.409705467133</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>6631.255821965488</v>
+        <v>6646.820530222499</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>6594.344551836674</v>
+        <v>6618.202989504023</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>6571.935987152133</v>
+        <v>6600.240194404897</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>6513.163518606098</v>
+        <v>6508.554519089291</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>6489.297511363043</v>
+        <v>6494.293126123084</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>6405.067096257225</v>
+        <v>6434.584857169063</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>6360.456442666165</v>
+        <v>6331.740538853276</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>6340.285597746446</v>
+        <v>6299.064790382066</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>6230.041707158317</v>
+        <v>6216.693799803349</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>6111.311892980305</v>
+        <v>6144.14444510644</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>6046.065743282183</v>
+        <v>6057.392124222489</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>5939.768889263428</v>
+        <v>5973.542705715726</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>5874.682892777044</v>
+        <v>5840.625810158159</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>5706.213541061077</v>
+        <v>5693.227347891461</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>5572.991581891588</v>
+        <v>5591.618838359409</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>5427.926963202865</v>
+        <v>5514.104039840689</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>5275.17731616132</v>
+        <v>5308.078403325559</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>5159.035857758249</v>
+        <v>5189.985974329237</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>5031.489641223315</v>
+        <v>5047.705473335253</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>4891.717422088948</v>
+        <v>4948.090802797249</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>4756.95698502396</v>
+        <v>4766.334184526131</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>4684.089424761425</v>
+        <v>4583.11242521156</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>4534.829679974262</v>
+        <v>4448.042991517098</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>4359.579989905586</v>
+        <v>4271.029509850966</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>4192.955161297428</v>
+        <v>4091.851195416982</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>4044.558644583612</v>
+        <v>3970.624824456323</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>3864.944845544914</v>
+        <v>3783.0142072356</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>3668.648383986862</v>
+        <v>3590.269155933204</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>3500.895877670191</v>
+        <v>3442.198661563002</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>3355.983223828149</v>
+        <v>3302.998262307523</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>3145.085644519123</v>
+        <v>3058.565881269529</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>2890.445413936145</v>
+        <v>2866.532324447465</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>2741.557846218197</v>
+        <v>2688.506866639567</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>2603.40694896459</v>
+        <v>2574.799292610603</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>2470.387404265228</v>
+        <v>2460.108900904722</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>2402.454256589491</v>
+        <v>2382.753069565312</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>2351.931898994147</v>
+        <v>2264.021341908573</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>2320.473191916665</v>
+        <v>2251.988430747316</v>
       </c>
     </row>
   </sheetData>
